--- a/data/trans_dic/P69$nervioso-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P69$nervioso-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.4169413518470801</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.4983682491739251</v>
+        <v>0.4983682491739252</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.268914793687292</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1785314770384325</v>
+        <v>0.1841178961949789</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2231088454057614</v>
+        <v>0.2348286258484964</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2777228046124641</v>
+        <v>0.2945939628819911</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3278248499164564</v>
+        <v>0.3257106549320708</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1420867392182796</v>
+        <v>0.1546227744196467</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3578533811398474</v>
+        <v>0.3601974219582523</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1034773216300415</v>
+        <v>0.1048289326772851</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3668288820195038</v>
+        <v>0.3513283191715427</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1922157265536885</v>
+        <v>0.1914003921952388</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3113060247254322</v>
+        <v>0.3097360185525118</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2738425360408351</v>
+        <v>0.2597327196940508</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3864916515818</v>
+        <v>0.3830183480089003</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3572893333692456</v>
+        <v>0.3444366082535326</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4734590820407208</v>
+        <v>0.4711580860978797</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5484406014714706</v>
+        <v>0.5611485710252091</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6587050514806567</v>
+        <v>0.659490624873491</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.431246104500604</v>
+        <v>0.4274809974665498</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6643786673824131</v>
+        <v>0.6771705421121106</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4967659683084069</v>
+        <v>0.4974198060172986</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.7017969173707955</v>
+        <v>0.7025935521351472</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3366286519415773</v>
+        <v>0.3394368407725999</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5156007196154209</v>
+        <v>0.5157331519306494</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4989894863248577</v>
+        <v>0.4927651825538062</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.6322314867599964</v>
+        <v>0.6357079033285594</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.3628360706963264</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.5597534381029772</v>
+        <v>0.5597534381029773</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.4938691500548967</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3564398523418512</v>
+        <v>0.3608726619186012</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3790999214751999</v>
+        <v>0.3846287243867335</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3048282416639936</v>
+        <v>0.2923308985952104</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4911872416100345</v>
+        <v>0.4912670796870739</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4076625390028881</v>
+        <v>0.4020906108315347</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.4464368543327972</v>
+        <v>0.4418884028129675</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5024320888616545</v>
+        <v>0.4990995303150352</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.5438584551121383</v>
+        <v>0.5453329467018602</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3885102485573025</v>
+        <v>0.3911563803082208</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.4307150454585112</v>
+        <v>0.4288361183963007</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.387375562532607</v>
+        <v>0.3911299263420216</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.5298828547419009</v>
+        <v>0.5292718856691448</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4769956560749987</v>
+        <v>0.474216155355098</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.5177224658312805</v>
+        <v>0.516918199664067</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4365308448959952</v>
+        <v>0.4296794034510641</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6231057910648289</v>
+        <v>0.620725783583594</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5885956614531805</v>
+        <v>0.5926763479789354</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6284030801741485</v>
+        <v>0.6305052985070495</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.677129936480968</v>
+        <v>0.6773088008725701</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6555614923627723</v>
+        <v>0.6633468854648733</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4911450477298255</v>
+        <v>0.4879297950622749</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.5377813315577196</v>
+        <v>0.5387600543185241</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4942536166735122</v>
+        <v>0.4953329103165356</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.6222840837370038</v>
+        <v>0.6226497827138509</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.6797112805319636</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8783193476547972</v>
+        <v>0.8783193476547976</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.693262029904482</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6431706373197272</v>
+        <v>0.6570033048672157</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5700330430389439</v>
+        <v>0.5809348480879248</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5599671861436835</v>
+        <v>0.5446891663625572</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.7741197369819824</v>
+        <v>0.7796026573908458</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5670506562958095</v>
+        <v>0.5749657965276377</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.5694855323560452</v>
+        <v>0.5690953934753422</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5998152867584712</v>
+        <v>0.5987113102086759</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8086628334109611</v>
+        <v>0.806629047687469</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6477914993277308</v>
+        <v>0.6546618662659941</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6166461551577498</v>
+        <v>0.6100496700758222</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.6096808870351151</v>
+        <v>0.6057710181726651</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.814110666932038</v>
+        <v>0.8188088426860189</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8547300414252857</v>
+        <v>0.8590746129282244</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8487290770974082</v>
+        <v>0.8343279747174986</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7911136691898778</v>
+        <v>0.794688772478725</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9438974570029918</v>
+        <v>0.9448782912378486</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8046274014733322</v>
+        <v>0.8042263646819058</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8473650453864792</v>
+        <v>0.8501009319054948</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8187497914343344</v>
+        <v>0.8207462731576872</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9204656797947022</v>
+        <v>0.9181871620369906</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8005221227421028</v>
+        <v>0.8139567208318461</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8078870681691346</v>
+        <v>0.8028811150648671</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7720026193070572</v>
+        <v>0.774060418166749</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9179161512783529</v>
+        <v>0.9174106955418614</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.4287361481059834</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.6184680314350416</v>
+        <v>0.6184680314350414</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.5134340852877562</v>
@@ -1105,7 +1105,7 @@
         <v>0.4967749733970942</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.6453153877288447</v>
+        <v>0.6453153877288446</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3845677611404195</v>
+        <v>0.3897433772710261</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4163984223533543</v>
+        <v>0.416268361553431</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3707550053915741</v>
+        <v>0.373199761561369</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5614469687494925</v>
+        <v>0.5613926691173883</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4457231826801007</v>
+        <v>0.4429179215040394</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.5051703401034251</v>
+        <v>0.5045990448482811</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5387029532001733</v>
+        <v>0.537519115903437</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.6330839094259696</v>
+        <v>0.629805467742873</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.4186673132849512</v>
+        <v>0.419772627578116</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.4693805904142558</v>
+        <v>0.4667258949077353</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.4527196020944725</v>
+        <v>0.4514315519026573</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.609509293308355</v>
+        <v>0.6128180885577665</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4781247226262521</v>
+        <v>0.4856202332883515</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5269710618864618</v>
+        <v>0.5275519624012682</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4803890914179072</v>
+        <v>0.4891358427648117</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6734609433835029</v>
+        <v>0.6702250171429104</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5786791822972083</v>
+        <v>0.5762096929885986</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6490909398210539</v>
+        <v>0.646188140988184</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.670087999540992</v>
+        <v>0.6717307811157897</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7194295145353443</v>
+        <v>0.7165183041552778</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4956288314082727</v>
+        <v>0.4958969238729041</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5574665082781406</v>
+        <v>0.5570004576638229</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5368654218707142</v>
+        <v>0.5425106622396566</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6791258467813526</v>
+        <v>0.6835091790688265</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>19721</v>
+        <v>20338</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>12565</v>
+        <v>13225</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>15436</v>
+        <v>16374</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>11644</v>
+        <v>11569</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5338</v>
+        <v>5809</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>13575</v>
+        <v>13664</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1865</v>
+        <v>1889</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>8564</v>
+        <v>8202</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>28454</v>
+        <v>28333</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>29342</v>
+        <v>29194</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>20156</v>
+        <v>19118</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>22750</v>
+        <v>22546</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>39468</v>
+        <v>38048</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>26664</v>
+        <v>26535</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>30483</v>
+        <v>31189</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23396</v>
+        <v>23424</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16201</v>
+        <v>16060</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>25203</v>
+        <v>25688</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>8954</v>
+        <v>8965</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>16384</v>
+        <v>16403</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>49832</v>
+        <v>50248</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>48597</v>
+        <v>48609</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>36728</v>
+        <v>36270</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>37216</v>
+        <v>37420</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>102279</v>
+        <v>103551</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>84061</v>
+        <v>85287</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>69634</v>
+        <v>66779</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>131461</v>
+        <v>131483</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>48337</v>
+        <v>47676</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>58739</v>
+        <v>58140</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>62585</v>
+        <v>62170</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>119353</v>
+        <v>119677</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>157547</v>
+        <v>158620</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>152176</v>
+        <v>151513</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>136744</v>
+        <v>138070</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>258104</v>
+        <v>257806</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>136872</v>
+        <v>136074</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>114799</v>
+        <v>114621</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>99720</v>
+        <v>98155</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>166768</v>
+        <v>166131</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>69790</v>
+        <v>70274</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>82680</v>
+        <v>82957</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>84347</v>
+        <v>84369</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>143867</v>
+        <v>145575</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>199167</v>
+        <v>197863</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>190004</v>
+        <v>190350</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>174473</v>
+        <v>174854</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>303112</v>
+        <v>303290</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>47643</v>
+        <v>48668</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>26272</v>
+        <v>26775</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>35051</v>
+        <v>34094</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>59522</v>
+        <v>59944</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>36282</v>
+        <v>36788</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>26379</v>
+        <v>26361</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>44211</v>
+        <v>44130</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>80041</v>
+        <v>79839</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>89433</v>
+        <v>90381</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>56984</v>
+        <v>56375</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>83101</v>
+        <v>82568</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>143177</v>
+        <v>144003</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>63314</v>
+        <v>63636</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>39117</v>
+        <v>38453</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>49519</v>
+        <v>49743</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>72576</v>
+        <v>72652</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>51482</v>
+        <v>51457</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>39251</v>
+        <v>39378</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>60348</v>
+        <v>60496</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>91107</v>
+        <v>90881</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>110518</v>
+        <v>112373</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>74657</v>
+        <v>74194</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>105226</v>
+        <v>105506</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>161433</v>
+        <v>161344</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>181318</v>
+        <v>183758</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>134974</v>
+        <v>134932</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>128508</v>
+        <v>129355</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>213377</v>
+        <v>213356</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>98113</v>
+        <v>97496</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>109030</v>
+        <v>108907</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>116520</v>
+        <v>116264</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>216375</v>
+        <v>215255</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>289552</v>
+        <v>290317</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>253453</v>
+        <v>252020</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>254840</v>
+        <v>254115</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>439961</v>
+        <v>442350</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>225428</v>
+        <v>228962</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>170816</v>
+        <v>171004</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>166508</v>
+        <v>169540</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>255947</v>
+        <v>254718</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>127379</v>
+        <v>126836</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>140092</v>
+        <v>139465</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>144939</v>
+        <v>145294</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>245887</v>
+        <v>244892</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>342779</v>
+        <v>342965</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>301017</v>
+        <v>300766</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>302206</v>
+        <v>305384</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>490213</v>
+        <v>493377</v>
       </c>
     </row>
     <row r="20">
